--- a/Complete-spreadsheets/EO/F4-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/F4-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65529E1-A3AF-4187-BF0C-99316B071CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C1CA7-8D94-4F41-AE3A-73AF8D418FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,23 +546,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>8.477650613772191</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.0926136755803615</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5.8267630399059476</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.9726520898664401</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.275287328474064</v>
+      <c r="B3" s="4">
+        <v>11.10141291241365</v>
+      </c>
+      <c r="C3" s="4">
+        <v>53.961721748221272</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.1692840131647912</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.3279962838817481</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.8049816855873786</v>
       </c>
       <c r="G3">
-        <v>27.644966747599</v>
+        <v>83.365396643268852</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -571,10 +571,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -585,22 +585,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>11.10141291241365</v>
+        <v>22.631364641042751</v>
       </c>
       <c r="C4" s="4">
-        <v>53.961721748221272</v>
+        <v>8.1533704824543918</v>
       </c>
       <c r="D4" s="4">
-        <v>8.1692840131647912</v>
+        <v>5.4239135529285933</v>
       </c>
       <c r="E4" s="4">
-        <v>4.3279962838817481</v>
+        <v>3.9915684525731301</v>
       </c>
       <c r="F4" s="4">
-        <v>5.8049816855873786</v>
+        <v>4.7481648801864269</v>
       </c>
       <c r="G4">
-        <v>83.365396643268852</v>
+        <v>44.948382009185309</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -622,23 +622,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>20.648156457325729</v>
-      </c>
-      <c r="C5" s="3">
-        <v>7.8533208812160833</v>
-      </c>
-      <c r="D5" s="3">
-        <v>6.9067315966167957</v>
-      </c>
-      <c r="E5" s="3">
-        <v>9.0501826509345769</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9.7440444258291521</v>
+      <c r="B5" s="4">
+        <v>23.30260613232268</v>
+      </c>
+      <c r="C5" s="4">
+        <v>38.074010325224293</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.882611182088807</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.5987131662454348</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.867887935422333</v>
       </c>
       <c r="G5">
-        <v>54.202436011922323</v>
+        <v>72.72582874130353</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -647,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -661,22 +661,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>22.631364641042751</v>
+        <v>25.11970571891176</v>
       </c>
       <c r="C6" s="4">
-        <v>8.1533704824543918</v>
+        <v>72.381527620920394</v>
       </c>
       <c r="D6" s="4">
-        <v>5.4239135529285933</v>
+        <v>17.511131036755589</v>
       </c>
       <c r="E6" s="4">
-        <v>3.9915684525731301</v>
+        <v>26.277533370937849</v>
       </c>
       <c r="F6" s="4">
-        <v>4.7481648801864269</v>
+        <v>62.671355279622048</v>
       </c>
       <c r="G6">
-        <v>44.948382009185309</v>
+        <v>203.96125302714771</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -699,22 +699,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>23.30260613232268</v>
+        <v>28.892945691475731</v>
       </c>
       <c r="C7" s="4">
-        <v>38.074010325224293</v>
+        <v>52.235185348874232</v>
       </c>
       <c r="D7" s="4">
-        <v>5.882611182088807</v>
+        <v>11.73410939174765</v>
       </c>
       <c r="E7" s="4">
-        <v>2.5987131662454348</v>
+        <v>6.6955116307276388</v>
       </c>
       <c r="F7" s="4">
-        <v>2.867887935422333</v>
+        <v>11.151977665769319</v>
       </c>
       <c r="G7">
-        <v>72.72582874130353</v>
+        <v>110.7097297285945</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -737,22 +737,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>25.11970571891176</v>
+        <v>31.387503493948589</v>
       </c>
       <c r="C8" s="4">
-        <v>72.381527620920394</v>
+        <v>77.335429989990814</v>
       </c>
       <c r="D8" s="4">
-        <v>17.511131036755589</v>
+        <v>6.7564165138920904</v>
       </c>
       <c r="E8" s="4">
-        <v>26.277533370937849</v>
+        <v>2.6600599844538979</v>
       </c>
       <c r="F8" s="4">
-        <v>62.671355279622048</v>
+        <v>3.8612147830896162</v>
       </c>
       <c r="G8">
-        <v>203.96125302714771</v>
+        <v>122.00062476537499</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -775,22 +775,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>28.892945691475731</v>
+        <v>31.828649368552</v>
       </c>
       <c r="C9" s="4">
-        <v>52.235185348874232</v>
+        <v>18.908298727533509</v>
       </c>
       <c r="D9" s="4">
-        <v>11.73410939174765</v>
+        <v>31.40174974716226</v>
       </c>
       <c r="E9" s="4">
-        <v>6.6955116307276388</v>
+        <v>5.8022223877915318</v>
       </c>
       <c r="F9" s="4">
-        <v>11.151977665769319</v>
+        <v>4.418145038889727</v>
       </c>
       <c r="G9">
-        <v>110.7097297285945</v>
+        <v>92.359065269929062</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -813,22 +813,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>31.387503493948589</v>
+        <v>36.965916177097043</v>
       </c>
       <c r="C10" s="4">
-        <v>77.335429989990814</v>
+        <v>7.214446567035421</v>
       </c>
       <c r="D10" s="4">
-        <v>6.7564165138920904</v>
+        <v>3.9754509588563929</v>
       </c>
       <c r="E10" s="4">
-        <v>2.6600599844538979</v>
+        <v>6.9542985230032262</v>
       </c>
       <c r="F10" s="4">
-        <v>3.8612147830896162</v>
+        <v>10.422536763192269</v>
       </c>
       <c r="G10">
-        <v>122.00062476537499</v>
+        <v>65.532648989184352</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -851,22 +851,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>31.828649368552</v>
+        <v>37.910106570296051</v>
       </c>
       <c r="C11" s="4">
-        <v>18.908298727533509</v>
+        <v>11.279301323781601</v>
       </c>
       <c r="D11" s="4">
-        <v>31.40174974716226</v>
+        <v>6.6749793732467708</v>
       </c>
       <c r="E11" s="4">
-        <v>5.8022223877915318</v>
+        <v>5.8443960088444822</v>
       </c>
       <c r="F11" s="4">
-        <v>4.418145038889727</v>
+        <v>11.53096403371379</v>
       </c>
       <c r="G11">
-        <v>92.359065269929062</v>
+        <v>73.239747309882674</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -888,23 +888,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>32.620137155905233</v>
-      </c>
-      <c r="C12" s="3">
-        <v>19.600926529759189</v>
-      </c>
-      <c r="D12" s="3">
-        <v>28.84714093872233</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12.316886020073399</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.8446011609255999</v>
+      <c r="B12" s="4">
+        <v>46.222570106156368</v>
+      </c>
+      <c r="C12" s="4">
+        <v>14.959979406873209</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17.81702469469862</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.8359227512622578</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.4059806616032211</v>
       </c>
       <c r="G12">
-        <v>98.229691805385713</v>
+        <v>89.241477620593685</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -929,23 +929,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>33.367532401044812</v>
-      </c>
-      <c r="C13" s="3">
-        <v>7.0311979296125262</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3.911945840936728</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.9882281129160901</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.7261301221853471</v>
+      <c r="B13" s="4">
+        <v>46.51842331614214</v>
+      </c>
+      <c r="C13" s="4">
+        <v>51.937856824134997</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.3773241782014756</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.1518241142712649</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.825680521523581</v>
       </c>
       <c r="G13">
-        <v>50.025034406695511</v>
+        <v>115.81110895427349</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -968,22 +968,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>36.965916177097043</v>
+        <v>48.705299055273009</v>
       </c>
       <c r="C14" s="4">
-        <v>7.214446567035421</v>
+        <v>16.882905417496499</v>
       </c>
       <c r="D14" s="4">
-        <v>3.9754509588563929</v>
+        <v>6.3912489302101019</v>
       </c>
       <c r="E14" s="4">
-        <v>6.9542985230032262</v>
+        <v>13.223548913489591</v>
       </c>
       <c r="F14" s="4">
-        <v>10.422536763192269</v>
+        <v>15.156488708961829</v>
       </c>
       <c r="G14">
-        <v>65.532648989184352</v>
+        <v>100.359491025431</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>37.910106570296051</v>
+        <v>57.209134695904062</v>
       </c>
       <c r="C15" s="4">
-        <v>11.279301323781601</v>
+        <v>20.109578693041911</v>
       </c>
       <c r="D15" s="4">
-        <v>6.6749793732467708</v>
+        <v>13.832647585749219</v>
       </c>
       <c r="E15" s="4">
-        <v>5.8443960088444822</v>
+        <v>9.418648708694537</v>
       </c>
       <c r="F15" s="4">
-        <v>11.53096403371379</v>
+        <v>13.620405255560099</v>
       </c>
       <c r="G15">
-        <v>73.239747309882674</v>
+        <v>114.1904149389498</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1043,23 +1043,23 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
-        <v>45.213410686161502</v>
-      </c>
-      <c r="C16" s="3">
-        <v>17.69696722973308</v>
-      </c>
-      <c r="D16" s="3">
-        <v>10.30542510550268</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30.385035260155639</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44.354259017061999</v>
+      <c r="B16" s="4">
+        <v>58.177993445604393</v>
+      </c>
+      <c r="C16" s="4">
+        <v>233.92499510799561</v>
+      </c>
+      <c r="D16" s="4">
+        <v>17.311261854793521</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.9392499145509072</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3.9820096580147459</v>
       </c>
       <c r="G16">
-        <v>147.9550972986149</v>
+        <v>321.33550998095899</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1082,22 +1082,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>46.222570106156368</v>
+        <v>67.875493173948982</v>
       </c>
       <c r="C17" s="4">
-        <v>14.959979406873209</v>
+        <v>13.224759320104949</v>
       </c>
       <c r="D17" s="4">
-        <v>17.81702469469862</v>
+        <v>10.403097821724311</v>
       </c>
       <c r="E17" s="4">
-        <v>6.8359227512622578</v>
+        <v>10.482069451368041</v>
       </c>
       <c r="F17" s="4">
-        <v>3.4059806616032211</v>
+        <v>11.554793573648301</v>
       </c>
       <c r="G17">
-        <v>89.241477620593685</v>
+        <v>113.54021334079459</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1120,22 +1120,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>46.51842331614214</v>
+        <v>78.70239943105075</v>
       </c>
       <c r="C18" s="4">
-        <v>51.937856824134997</v>
+        <v>13.962405961289351</v>
       </c>
       <c r="D18" s="4">
-        <v>6.3773241782014756</v>
+        <v>3.8274273952720241</v>
       </c>
       <c r="E18" s="4">
-        <v>4.1518241142712649</v>
+        <v>3.1340020436592</v>
       </c>
       <c r="F18" s="4">
-        <v>6.825680521523581</v>
+        <v>2.6149633788930911</v>
       </c>
       <c r="G18">
-        <v>115.81110895427349</v>
+        <v>102.2411982101644</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>48.705299055273009</v>
+        <v>86.970438363558458</v>
       </c>
       <c r="C19" s="4">
-        <v>16.882905417496499</v>
+        <v>15.55705578462587</v>
       </c>
       <c r="D19" s="4">
-        <v>6.3912489302101019</v>
+        <v>6.5120802178745798</v>
       </c>
       <c r="E19" s="4">
-        <v>13.223548913489591</v>
+        <v>3.0926715557991389</v>
       </c>
       <c r="F19" s="4">
-        <v>15.156488708961829</v>
+        <v>3.4266131389117112</v>
       </c>
       <c r="G19">
-        <v>100.359491025431</v>
+        <v>115.55885906076971</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1195,23 +1195,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>49.166838812966901</v>
-      </c>
-      <c r="C20" s="3">
-        <v>12.246699664418511</v>
-      </c>
-      <c r="D20" s="3">
-        <v>8.1244580272556242</v>
-      </c>
-      <c r="E20" s="3">
-        <v>21.218671565320172</v>
-      </c>
-      <c r="F20" s="3">
-        <v>17.934049879428919</v>
+      <c r="B20" s="4">
+        <v>95.252481567230873</v>
+      </c>
+      <c r="C20" s="4">
+        <v>35.372875165236721</v>
+      </c>
+      <c r="D20" s="4">
+        <v>64.253429598289301</v>
+      </c>
+      <c r="E20" s="4">
+        <v>36.666158455169906</v>
+      </c>
+      <c r="F20" s="4">
+        <v>50.563439926190753</v>
       </c>
       <c r="G20">
-        <v>108.69071794939011</v>
+        <v>282.10838471211758</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>28</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -1233,23 +1233,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>50.262571498214392</v>
-      </c>
-      <c r="C21" s="3">
-        <v>57.015017758073398</v>
-      </c>
-      <c r="D21" s="3">
-        <v>20.577070272670699</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9.157850315798985</v>
-      </c>
-      <c r="F21" s="3">
-        <v>12.532353615104171</v>
+      <c r="B21" s="4">
+        <v>145.03620506812479</v>
+      </c>
+      <c r="C21" s="4">
+        <v>18.974587502312641</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12.71607094038716</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.7950475973084288</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.7068611509981606</v>
       </c>
       <c r="G21">
-        <v>149.54486345986169</v>
+        <v>187.2287722591312</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
@@ -1271,23 +1271,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>52.371326274687711</v>
-      </c>
-      <c r="C22" s="3">
-        <v>37.489746064164812</v>
-      </c>
-      <c r="D22" s="3">
-        <v>28.960508634078781</v>
-      </c>
-      <c r="E22" s="3">
-        <v>22.025232012165869</v>
-      </c>
-      <c r="F22" s="3">
-        <v>12.34182864052354</v>
+      <c r="B22" s="4">
+        <v>146.40383674498131</v>
+      </c>
+      <c r="C22" s="4">
+        <v>83.346811712094706</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10.32709519848682</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9.9199036430491905</v>
+      </c>
+      <c r="F22" s="4">
+        <v>16.27765490855883</v>
       </c>
       <c r="G22">
-        <v>153.1886416256207</v>
+        <v>266.27530220717091</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
@@ -1309,23 +1309,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>54.260941036257627</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20.226014970678651</v>
-      </c>
-      <c r="D23" s="3">
-        <v>22.13965556683365</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10.666663451189329</v>
-      </c>
-      <c r="F23" s="3">
-        <v>8.2022145345798467</v>
+      <c r="B23" s="4">
+        <v>171.96893727928079</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13.87619662877198</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10.38729012968396</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4.2182398205139684</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.0215621795354441</v>
       </c>
       <c r="G23">
-        <v>115.4954895595391</v>
+        <v>203.4722260377861</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1334,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
@@ -1347,23 +1347,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="3">
-        <v>56.00783069780281</v>
-      </c>
-      <c r="C24" s="3">
-        <v>30.166081215382359</v>
-      </c>
-      <c r="D24" s="3">
-        <v>13.38891158517229</v>
-      </c>
-      <c r="E24" s="3">
-        <v>6.4449641655804104</v>
-      </c>
-      <c r="F24" s="3">
-        <v>5.1945397249404062</v>
+      <c r="B24" s="4">
+        <v>244.11410199352551</v>
+      </c>
+      <c r="C24" s="4">
+        <v>56.779821841488889</v>
+      </c>
+      <c r="D24" s="4">
+        <v>19.942472707844701</v>
+      </c>
+      <c r="E24" s="4">
+        <v>19.70767607195997</v>
+      </c>
+      <c r="F24" s="4">
+        <v>17.062972035369292</v>
       </c>
       <c r="G24">
-        <v>111.2023273888783</v>
+        <v>357.6070446501883</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>14</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -1385,23 +1385,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>57.209134695904062</v>
-      </c>
-      <c r="C25" s="4">
-        <v>20.109578693041911</v>
-      </c>
-      <c r="D25" s="4">
-        <v>13.832647585749219</v>
-      </c>
-      <c r="E25" s="4">
-        <v>9.418648708694537</v>
-      </c>
-      <c r="F25" s="4">
-        <v>13.620405255560099</v>
+      <c r="B25" s="3">
+        <v>8.477650613772191</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8.0926136755803615</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5.8267630399059476</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.9726520898664401</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2.275287328474064</v>
       </c>
       <c r="G25">
-        <v>114.1904149389498</v>
+        <v>27.644966747599</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1410,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -1423,23 +1423,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>58.177993445604393</v>
-      </c>
-      <c r="C26" s="4">
-        <v>233.92499510799561</v>
-      </c>
-      <c r="D26" s="4">
-        <v>17.311261854793521</v>
-      </c>
-      <c r="E26" s="4">
-        <v>7.9392499145509072</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3.9820096580147459</v>
+      <c r="B26" s="3">
+        <v>20.648156457325729</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7.8533208812160833</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6.9067315966167957</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9.0501826509345769</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9.7440444258291521</v>
       </c>
       <c r="G26">
-        <v>321.33550998095899</v>
+        <v>54.202436011922323</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>9</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1462,22 +1462,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>64.146557510262113</v>
+        <v>32.620137155905233</v>
       </c>
       <c r="C27" s="3">
-        <v>21.5987686913756</v>
+        <v>19.600926529759189</v>
       </c>
       <c r="D27" s="3">
-        <v>4.8786914881686769</v>
+        <v>28.84714093872233</v>
       </c>
       <c r="E27" s="3">
-        <v>2.466428709499672</v>
+        <v>12.316886020073399</v>
       </c>
       <c r="F27" s="3">
-        <v>1.2573622389851831</v>
+        <v>4.8446011609255999</v>
       </c>
       <c r="G27">
-        <v>94.347808638291269</v>
+        <v>98.229691805385713</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1499,23 +1499,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>67.875493173948982</v>
-      </c>
-      <c r="C28" s="4">
-        <v>13.224759320104949</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10.403097821724311</v>
-      </c>
-      <c r="E28" s="4">
-        <v>10.482069451368041</v>
-      </c>
-      <c r="F28" s="4">
-        <v>11.554793573648301</v>
+      <c r="B28" s="3">
+        <v>33.367532401044812</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7.0311979296125262</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.911945840936728</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2.9882281129160901</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.7261301221853471</v>
       </c>
       <c r="G28">
-        <v>113.54021334079459</v>
+        <v>50.025034406695511</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1537,23 +1537,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>78.70239943105075</v>
-      </c>
-      <c r="C29" s="4">
-        <v>13.962405961289351</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3.8274273952720241</v>
-      </c>
-      <c r="E29" s="4">
-        <v>3.1340020436592</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2.6149633788930911</v>
+      <c r="B29" s="3">
+        <v>45.213410686161502</v>
+      </c>
+      <c r="C29" s="3">
+        <v>17.69696722973308</v>
+      </c>
+      <c r="D29" s="3">
+        <v>10.30542510550268</v>
+      </c>
+      <c r="E29" s="3">
+        <v>30.385035260155639</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44.354259017061999</v>
       </c>
       <c r="G29">
-        <v>102.2411982101644</v>
+        <v>147.9550972986149</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>7</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1576,22 +1576,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>80.408249269606259</v>
+        <v>49.166838812966901</v>
       </c>
       <c r="C30" s="3">
-        <v>22.90891141705962</v>
+        <v>12.246699664418511</v>
       </c>
       <c r="D30" s="3">
-        <v>5.0797096267815656</v>
+        <v>8.1244580272556242</v>
       </c>
       <c r="E30" s="3">
-        <v>4.8121923886534752</v>
+        <v>21.218671565320172</v>
       </c>
       <c r="F30" s="3">
-        <v>6.1162451240933802</v>
+        <v>17.934049879428919</v>
       </c>
       <c r="G30">
-        <v>119.3253078261943</v>
+        <v>108.69071794939011</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1613,23 +1613,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>86.970438363558458</v>
-      </c>
-      <c r="C31" s="4">
-        <v>15.55705578462587</v>
-      </c>
-      <c r="D31" s="4">
-        <v>6.5120802178745798</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3.0926715557991389</v>
-      </c>
-      <c r="F31" s="4">
-        <v>3.4266131389117112</v>
+      <c r="B31" s="3">
+        <v>50.262571498214392</v>
+      </c>
+      <c r="C31" s="3">
+        <v>57.015017758073398</v>
+      </c>
+      <c r="D31" s="3">
+        <v>20.577070272670699</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.157850315798985</v>
+      </c>
+      <c r="F31" s="3">
+        <v>12.532353615104171</v>
       </c>
       <c r="G31">
-        <v>115.55885906076971</v>
+        <v>149.54486345986169</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1640,8 +1640,8 @@
       <c r="J31">
         <v>22</v>
       </c>
-      <c r="K31" s="4">
-        <v>0</v>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1652,22 +1652,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>87.305287244464751</v>
+        <v>52.371326274687711</v>
       </c>
       <c r="C32" s="3">
-        <v>28.97165398393393</v>
+        <v>37.489746064164812</v>
       </c>
       <c r="D32" s="3">
-        <v>11.633925019021881</v>
+        <v>28.960508634078781</v>
       </c>
       <c r="E32" s="3">
-        <v>4.1036078603355248</v>
+        <v>22.025232012165869</v>
       </c>
       <c r="F32" s="3">
-        <v>2.6179795177582799</v>
+        <v>12.34182864052354</v>
       </c>
       <c r="G32">
-        <v>134.63245362551439</v>
+        <v>153.1886416256207</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1689,23 +1689,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>95.252481567230873</v>
-      </c>
-      <c r="C33" s="4">
-        <v>35.372875165236721</v>
-      </c>
-      <c r="D33" s="4">
-        <v>64.253429598289301</v>
-      </c>
-      <c r="E33" s="4">
-        <v>36.666158455169906</v>
-      </c>
-      <c r="F33" s="4">
-        <v>50.563439926190753</v>
+      <c r="B33" s="3">
+        <v>54.260941036257627</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20.226014970678651</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22.13965556683365</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10.666663451189329</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8.2022145345798467</v>
       </c>
       <c r="G33">
-        <v>282.10838471211758</v>
+        <v>115.4954895595391</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>12</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1728,22 +1728,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>103.2743342116075</v>
+        <v>56.00783069780281</v>
       </c>
       <c r="C34" s="3">
-        <v>17.674978154969381</v>
+        <v>30.166081215382359</v>
       </c>
       <c r="D34" s="3">
-        <v>5.527341029795366</v>
+        <v>13.38891158517229</v>
       </c>
       <c r="E34" s="3">
-        <v>8.7412589638896634</v>
+        <v>6.4449641655804104</v>
       </c>
       <c r="F34" s="3">
-        <v>9.0025529226548837</v>
+        <v>5.1945397249404062</v>
       </c>
       <c r="G34">
-        <v>144.22046528291671</v>
+        <v>111.2023273888783</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1766,22 +1766,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>113.3488813524263</v>
+        <v>64.146557510262113</v>
       </c>
       <c r="C35" s="3">
-        <v>33.924884803577442</v>
+        <v>21.5987686913756</v>
       </c>
       <c r="D35" s="3">
-        <v>14.70709457727833</v>
+        <v>4.8786914881686769</v>
       </c>
       <c r="E35" s="3">
-        <v>13.17158633764768</v>
+        <v>2.466428709499672</v>
       </c>
       <c r="F35" s="3">
-        <v>5.7485979610554283</v>
+        <v>1.2573622389851831</v>
       </c>
       <c r="G35">
-        <v>180.90104503198509</v>
+        <v>94.347808638291269</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1804,22 +1804,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>118.77177056164081</v>
+        <v>80.408249269606259</v>
       </c>
       <c r="C36" s="3">
-        <v>23.038329258864909</v>
+        <v>22.90891141705962</v>
       </c>
       <c r="D36" s="3">
-        <v>15.211935075672519</v>
+        <v>5.0797096267815656</v>
       </c>
       <c r="E36" s="3">
-        <v>19.062028545586209</v>
+        <v>4.8121923886534752</v>
       </c>
       <c r="F36" s="3">
-        <v>15.73379985673578</v>
+        <v>6.1162451240933802</v>
       </c>
       <c r="G36">
-        <v>191.8178632985003</v>
+        <v>119.3253078261943</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1842,22 +1842,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>122.92038686023869</v>
+        <v>87.305287244464751</v>
       </c>
       <c r="C37" s="3">
-        <v>22.47449857162529</v>
+        <v>28.97165398393393</v>
       </c>
       <c r="D37" s="3">
-        <v>4.8365889753957259</v>
+        <v>11.633925019021881</v>
       </c>
       <c r="E37" s="3">
-        <v>6.8931520672436477</v>
+        <v>4.1036078603355248</v>
       </c>
       <c r="F37" s="3">
-        <v>7.3597503209811181</v>
+        <v>2.6179795177582799</v>
       </c>
       <c r="G37">
-        <v>164.48437679548451</v>
+        <v>134.63245362551439</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1880,22 +1880,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>128.75872092155731</v>
+        <v>103.2743342116075</v>
       </c>
       <c r="C38" s="3">
-        <v>39.17338725000392</v>
+        <v>17.674978154969381</v>
       </c>
       <c r="D38" s="3">
-        <v>13.41509332014409</v>
+        <v>5.527341029795366</v>
       </c>
       <c r="E38" s="3">
-        <v>20.690181122999391</v>
+        <v>8.7412589638896634</v>
       </c>
       <c r="F38" s="3">
-        <v>32.736118427947197</v>
+        <v>9.0025529226548837</v>
       </c>
       <c r="G38">
-        <v>234.7735010426519</v>
+        <v>144.22046528291671</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1918,22 +1918,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>129.9570694998975</v>
+        <v>113.3488813524263</v>
       </c>
       <c r="C39" s="3">
-        <v>25.71514519659361</v>
+        <v>33.924884803577442</v>
       </c>
       <c r="D39" s="3">
-        <v>13.28301561221916</v>
+        <v>14.70709457727833</v>
       </c>
       <c r="E39" s="3">
-        <v>10.730410465977871</v>
+        <v>13.17158633764768</v>
       </c>
       <c r="F39" s="3">
-        <v>11.967648813657981</v>
+        <v>5.7485979610554283</v>
       </c>
       <c r="G39">
-        <v>191.6532895883461</v>
+        <v>180.90104503198509</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1955,23 +1955,23 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4">
-        <v>145.03620506812479</v>
-      </c>
-      <c r="C40" s="4">
-        <v>18.974587502312641</v>
-      </c>
-      <c r="D40" s="4">
-        <v>12.71607094038716</v>
-      </c>
-      <c r="E40" s="4">
-        <v>5.7950475973084288</v>
-      </c>
-      <c r="F40" s="4">
-        <v>4.7068611509981606</v>
+      <c r="B40" s="3">
+        <v>118.77177056164081</v>
+      </c>
+      <c r="C40" s="3">
+        <v>23.038329258864909</v>
+      </c>
+      <c r="D40" s="3">
+        <v>15.211935075672519</v>
+      </c>
+      <c r="E40" s="3">
+        <v>19.062028545586209</v>
+      </c>
+      <c r="F40" s="3">
+        <v>15.73379985673578</v>
       </c>
       <c r="G40">
-        <v>187.2287722591312</v>
+        <v>191.8178632985003</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>13</v>
@@ -1993,23 +1993,23 @@
       <c r="A41" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="4">
-        <v>146.40383674498131</v>
-      </c>
-      <c r="C41" s="4">
-        <v>83.346811712094706</v>
-      </c>
-      <c r="D41" s="4">
-        <v>10.32709519848682</v>
-      </c>
-      <c r="E41" s="4">
-        <v>9.9199036430491905</v>
-      </c>
-      <c r="F41" s="4">
-        <v>16.27765490855883</v>
+      <c r="B41" s="3">
+        <v>122.92038686023869</v>
+      </c>
+      <c r="C41" s="3">
+        <v>22.47449857162529</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4.8365889753957259</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6.8931520672436477</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7.3597503209811181</v>
       </c>
       <c r="G41">
-        <v>266.27530220717091</v>
+        <v>164.48437679548451</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>10</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2032,22 +2032,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>163.72709289106251</v>
+        <v>128.75872092155731</v>
       </c>
       <c r="C42" s="3">
-        <v>28.036334064485551</v>
+        <v>39.17338725000392</v>
       </c>
       <c r="D42" s="3">
-        <v>3.9390272816167351</v>
+        <v>13.41509332014409</v>
       </c>
       <c r="E42" s="3">
-        <v>4.9067077663200473</v>
+        <v>20.690181122999391</v>
       </c>
       <c r="F42" s="3">
-        <v>3.802157299757845</v>
+        <v>32.736118427947197</v>
       </c>
       <c r="G42">
-        <v>204.41131930324281</v>
+        <v>234.7735010426519</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2069,23 +2069,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>171.96893727928079</v>
-      </c>
-      <c r="C43" s="4">
-        <v>13.87619662877198</v>
-      </c>
-      <c r="D43" s="4">
-        <v>10.38729012968396</v>
-      </c>
-      <c r="E43" s="4">
-        <v>4.2182398205139684</v>
-      </c>
-      <c r="F43" s="4">
-        <v>3.0215621795354441</v>
+      <c r="B43" s="3">
+        <v>129.9570694998975</v>
+      </c>
+      <c r="C43" s="3">
+        <v>25.71514519659361</v>
+      </c>
+      <c r="D43" s="3">
+        <v>13.28301561221916</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10.730410465977871</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11.967648813657981</v>
       </c>
       <c r="G43">
-        <v>203.4722260377861</v>
+        <v>191.6532895883461</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>14</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2108,22 +2108,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>192.44602558711301</v>
+        <v>163.72709289106251</v>
       </c>
       <c r="C44" s="3">
-        <v>84.882551182191108</v>
+        <v>28.036334064485551</v>
       </c>
       <c r="D44" s="3">
-        <v>60.193299062429233</v>
+        <v>3.9390272816167351</v>
       </c>
       <c r="E44" s="3">
-        <v>73.466226768449502</v>
+        <v>4.9067077663200473</v>
       </c>
       <c r="F44" s="3">
-        <v>40.384197908365657</v>
+        <v>3.802157299757845</v>
       </c>
       <c r="G44">
-        <v>451.37230050854851</v>
+        <v>204.41131930324281</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2146,22 +2146,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>211.51654923849179</v>
+        <v>192.44602558711301</v>
       </c>
       <c r="C45" s="3">
-        <v>85.964052121938863</v>
+        <v>84.882551182191108</v>
       </c>
       <c r="D45" s="3">
-        <v>45.365898670455337</v>
+        <v>60.193299062429233</v>
       </c>
       <c r="E45" s="3">
-        <v>156.6754798363221</v>
+        <v>73.466226768449502</v>
       </c>
       <c r="F45" s="3">
-        <v>350.78507330550178</v>
+        <v>40.384197908365657</v>
       </c>
       <c r="G45">
-        <v>850.30705317271008</v>
+        <v>451.37230050854851</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2184,22 +2184,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>243.38955597445241</v>
+        <v>211.51654923849179</v>
       </c>
       <c r="C46" s="3">
-        <v>90.777008225829633</v>
+        <v>85.964052121938863</v>
       </c>
       <c r="D46" s="3">
-        <v>18.504990036716311</v>
+        <v>45.365898670455337</v>
       </c>
       <c r="E46" s="3">
-        <v>7.4379115051255029</v>
+        <v>156.6754798363221</v>
       </c>
       <c r="F46" s="3">
-        <v>6.2124524497813747</v>
+        <v>350.78507330550178</v>
       </c>
       <c r="G46">
-        <v>366.32191819190513</v>
+        <v>850.30705317271008</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2222,22 +2222,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>244.08716509449951</v>
+        <v>243.38955597445241</v>
       </c>
       <c r="C47" s="3">
-        <v>50.402041371003847</v>
+        <v>90.777008225829633</v>
       </c>
       <c r="D47" s="3">
-        <v>14.34412240288591</v>
+        <v>18.504990036716311</v>
       </c>
       <c r="E47" s="3">
-        <v>12.46240489189837</v>
+        <v>7.4379115051255029</v>
       </c>
       <c r="F47" s="3">
-        <v>24.430911354438539</v>
+        <v>6.2124524497813747</v>
       </c>
       <c r="G47">
-        <v>345.72664511472618</v>
+        <v>366.32191819190513</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2259,23 +2259,23 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="4">
-        <v>244.11410199352551</v>
-      </c>
-      <c r="C48" s="4">
-        <v>56.779821841488889</v>
-      </c>
-      <c r="D48" s="4">
-        <v>19.942472707844701</v>
-      </c>
-      <c r="E48" s="4">
-        <v>19.70767607195997</v>
-      </c>
-      <c r="F48" s="4">
-        <v>17.062972035369292</v>
+      <c r="B48" s="3">
+        <v>244.08716509449951</v>
+      </c>
+      <c r="C48" s="3">
+        <v>50.402041371003847</v>
+      </c>
+      <c r="D48" s="3">
+        <v>14.34412240288591</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12.46240489189837</v>
+      </c>
+      <c r="F48" s="3">
+        <v>24.430911354438539</v>
       </c>
       <c r="G48">
-        <v>357.6070446501883</v>
+        <v>345.72664511472618</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>21</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>13</v>
@@ -2370,9 +2370,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
-    <sortCondition ref="B2:B58"/>
-    <sortCondition ref="D2:D58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
